--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292897</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292897</v>
+        <v>15243411.81384641</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36219.61030596476</v>
+        <v>4608895.756638791</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36219.61030596476</v>
+        <v>4608895.756638791</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494869468.049715</v>
+        <v>55788065.10784563</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11784.45736096986</v>
+        <v>1194818.616471575</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22965.56893215856</v>
+        <v>2308971.666420992</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34092.8299982965</v>
+        <v>3414912.514350223</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45937.55981411033</v>
+        <v>4467888.129919764</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57120.52327080633</v>
+        <v>5593785.915575789</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68303.48672750089</v>
+        <v>6719683.701232048</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80071.75059631985</v>
+        <v>7966123.55854993</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91542.4483196098</v>
+        <v>9167175.489290223</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103598.2661222492</v>
+        <v>10250066.2847487</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114795.8915542668</v>
+        <v>11435863.56494526</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125842.2526445158</v>
+        <v>12658981.54165531</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136620.7932665627</v>
+        <v>13869900.39898273</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147472.1904542661</v>
+        <v>15091929.88257279</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159506.7777885865</v>
+        <v>16144698.40342643</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173948.0598618393</v>
+        <v>16719430.71617187</v>
       </c>
     </row>
   </sheetData>
